--- a/system_storage/history/programme/BCS-January-2024 S3.xlsx
+++ b/system_storage/history/programme/BCS-January-2024 S3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Day / Time</t>
   </si>
@@ -80,42 +80,9 @@
     <t>18:00</t>
   </si>
   <si>
-    <t>NET3204-G2-Practical
-(Foo Jinny)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G1-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC3044-G1-Lecture
+    <t>CSC3044-G4-Practical
 (Alwin Kumar Rathinam)
-Uni Lecture Theatre 1</t>
-  </si>
-  <si>
-    <t>NET1014-G3-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC3044-G2-Practical
-(Alwin Kumar Rathinam)
-UE2-16</t>
-  </si>
-  <si>
-    <t>NET3204-G3-Practical
-(Foo Jinny)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G2-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>Monday</t>
+UE2-16</t>
   </si>
   <si>
     <t>NET1014-G1-Lecture
@@ -123,7 +90,17 @@
 JC1</t>
   </si>
   <si>
-    <t>Tuesday</t>
+    <t>NET1014-G3-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>NET1014-G4-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>Monday</t>
   </si>
   <si>
     <t>NET2201-G1-Lecture
@@ -131,47 +108,113 @@
 JC1</t>
   </si>
   <si>
+    <t>NET2201-G5-Practical
+(Lim Han Shen)
+UE2-17</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>NET1014-G5-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET3204-G1-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET1014-G6-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET3204-G3-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET1014-G7-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET3204-G4-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC3044-G1-Practical
+(Alwin Kumar Rathinam)
+UE2-16</t>
+  </si>
+  <si>
+    <t>NET1014-G8-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET3204-G2-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>NET2201-G1-Practical
+(Danish Mahmood Khan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>CSC3044-G1-Lecture
+(Alwin Kumar Rathinam)
+JC1</t>
+  </si>
+  <si>
+    <t>NET2201-G6-Practical
+(Teoh Jiehan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G7-Practical
+(Danish Mahmood Khan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>CSC3044-G2-Practical
+(Alwin Kumar Rathinam)
+UE2-16</t>
+  </si>
+  <si>
+    <t>NET3204-G6-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
     <t>NET2201-G3-Practical
 (Teoh Jiehan)
 UE2-17</t>
   </si>
   <si>
-    <t>NET2201-G5-Practical
-(Lim Han Shen)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET2201-G6-Practical
-(Teoh Jiehan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>NET2201-G1-Practical
+    <t>NET2201-G4-Practical
 (Danish Mahmood Khan)
-UE2-16</t>
+UE2-17</t>
   </si>
   <si>
     <t>NET3204-G1-Lecture
 (Yawar Abbas)
-Uni Lecture Theatre 1</t>
-  </si>
-  <si>
-    <t>NET2201-G4-Practical
-(Danish Mahmood Khan)
-UE2-16</t>
-  </si>
-  <si>
-    <t>NET2201-G4-Practical
-(Danish Mahmood Khan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET3204-G1-Practical
-(Foo Jinny)
-UE2-17</t>
+JC1</t>
+  </si>
+  <si>
+    <t>NET1014-G1-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
   </si>
   <si>
     <t>CSC3044-G3-Practical
@@ -179,17 +222,9 @@
 UE2-16</t>
   </si>
   <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>NET1014-G5-Practical
-(Maisarah Binti Mansor)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G6-Practical
-(Maisarah Binti Mansor)
-UE2-17</t>
+    <t>NET3204-G5-Practical
+(Foo Jinny)
+UC3-3</t>
   </si>
   <si>
     <t>NET2201-G2-Practical
@@ -197,19 +232,14 @@
 UE2-17</t>
   </si>
   <si>
-    <t>NET1014-G4-Practical
-(Maisarah Binti Mansor)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G4-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC3044-G1-Practical
-(Alwin Kumar Rathinam)
-UE2-16</t>
+    <t>NET1014-G2-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>NET3204-G7-Practical
+(Foo Jinny)
+UC3-3</t>
   </si>
   <si>
     <t>Friday</t>
@@ -218,7 +248,7 @@
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>99.93%</t>
+    <t>98.94%</t>
   </si>
 </sst>
 </file>
@@ -368,7 +398,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.8984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.4921875" customWidth="true" bestFit="true"/>
@@ -462,147 +492,171 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="N2" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="N2" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s" s="5">
+    </row>
+    <row r="3" ht="62.4" customHeight="true">
+      <c r="A3" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s" s="5">
         <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="62.4" customHeight="true">
-      <c r="F3" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s" s="5">
-        <v>27</v>
       </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
       <c r="A4" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="62.4" customHeight="true">
+      <c r="B5" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="B4" t="s" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="62.4" customHeight="true">
-      <c r="A5" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s" s="5">
+      <c r="G5" t="s" s="5">
         <v>33</v>
       </c>
-      <c r="J5" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s" s="5">
+      <c r="L5" t="s" s="5">
         <v>35</v>
       </c>
+      <c r="Q5" t="s" s="5">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" ht="62.4" customHeight="true">
-      <c r="A6" t="s" s="1">
+      <c r="Q6" t="s" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" ht="62.4" customHeight="true">
+      <c r="A7" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="B6" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s" s="5">
+    </row>
+    <row r="8" ht="62.4" customHeight="true">
+      <c r="B8" t="s" s="3">
         <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="62.4" customHeight="true">
-      <c r="G7" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s" s="5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" ht="62.4" customHeight="true">
-      <c r="G8" t="s" s="5">
-        <v>40</v>
       </c>
     </row>
     <row r="9" ht="62.4" customHeight="true">
       <c r="A9" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="B9" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s" s="5">
+      <c r="N9" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="R9" t="s" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" ht="62.4" customHeight="true">
+      <c r="B10" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="Q9" t="s" s="5">
+      <c r="F10" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="N10" t="s" s="5">
+        <v>52</v>
+      </c>
+      <c r="R10" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" ht="62.4" customHeight="true">
+      <c r="B11" t="s" s="5">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" ht="62.4" customHeight="true">
-      <c r="Q10" t="s" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" ht="62.4" customHeight="true">
-      <c r="R11" t="s" s="5">
-        <v>49</v>
+      <c r="Q11" t="s" s="5">
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="33">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
     <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/system_storage/history/programme/BCS-January-2024 S3.xlsx
+++ b/system_storage/history/programme/BCS-January-2024 S3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Day / Time</t>
   </si>
@@ -78,6 +78,115 @@
   </si>
   <si>
     <t>18:00</t>
+  </si>
+  <si>
+    <t>NET1014-G1-Lecture
+(Mehran Behjati)
+JC1</t>
+  </si>
+  <si>
+    <t>NET1014-G1-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>NET1014-G2-Practical
+(Maisarah Binti Mansor)
+UE2-16</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>NET2201-G1-Lecture
+(Saad Aslam)
+JC1</t>
+  </si>
+  <si>
+    <t>NET2201-G5-Practical
+(Lim Han Shen)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G8-Practical
+(Lim Han Shen)
+UE2-17</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>NET3204-G2-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET1014-G4-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G5-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET3204-G3-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET1014-G6-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET1014-G3-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET3204-G1-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC3044-G1-Practical
+(Alwin Kumar Rathinam)
+UE2-16</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>CSC3044-G1-Lecture
+(Alwin Kumar Rathinam)
+JC1</t>
+  </si>
+  <si>
+    <t>NET2201-G3-Practical
+(Teoh Jiehan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G6-Practical
+(Teoh Jiehan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>CSC3044-G2-Practical
+(Alwin Kumar Rathinam)
+UE2-16</t>
+  </si>
+  <si>
+    <t>CSC3044-G3-Practical
+(Alwin Kumar Rathinam)
+UE2-16</t>
+  </si>
+  <si>
+    <t>NET2201-G7-Practical
+(Danish Mahmood Khan)
+UE2-17</t>
   </si>
   <si>
     <t>CSC3044-G4-Practical
@@ -85,58 +194,30 @@
 UE2-16</t>
   </si>
   <si>
-    <t>NET1014-G1-Lecture
-(Mehran Behjati)
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>NET1014-G7-Practical
+(Maisarah Binti Mansor)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET2201-G1-Practical
+(Danish Mahmood Khan)
+UE2-17</t>
+  </si>
+  <si>
+    <t>NET3204-G1-Lecture
+(Yawar Abbas)
 JC1</t>
   </si>
   <si>
-    <t>NET1014-G3-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>NET1014-G4-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>NET2201-G1-Lecture
-(Saad Aslam)
-JC1</t>
-  </si>
-  <si>
-    <t>NET2201-G5-Practical
+    <t>NET2201-G2-Practical
 (Lim Han Shen)
 UE2-17</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>NET1014-G5-Practical
-(Maisarah Binti Mansor)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET3204-G1-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
-    <t>NET1014-G6-Practical
-(Maisarah Binti Mansor)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET3204-G3-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
-    <t>NET1014-G7-Practical
+    <t>NET1014-G8-Practical
 (Maisarah Binti Mansor)
 UE2-17</t>
   </si>
@@ -146,109 +227,18 @@
 UC3-3</t>
   </si>
   <si>
-    <t>CSC3044-G1-Practical
-(Alwin Kumar Rathinam)
-UE2-16</t>
-  </si>
-  <si>
-    <t>NET1014-G8-Practical
-(Maisarah Binti Mansor)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET3204-G2-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>NET2201-G1-Practical
-(Danish Mahmood Khan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>CSC3044-G1-Lecture
-(Alwin Kumar Rathinam)
-JC1</t>
-  </si>
-  <si>
-    <t>NET2201-G6-Practical
-(Teoh Jiehan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET2201-G7-Practical
-(Danish Mahmood Khan)
-UE2-17</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>CSC3044-G2-Practical
-(Alwin Kumar Rathinam)
-UE2-16</t>
-  </si>
-  <si>
-    <t>NET3204-G6-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
-    <t>NET2201-G3-Practical
-(Teoh Jiehan)
-UE2-17</t>
-  </si>
-  <si>
     <t>NET2201-G4-Practical
 (Danish Mahmood Khan)
 UE2-17</t>
   </si>
   <si>
-    <t>NET3204-G1-Lecture
-(Yawar Abbas)
-JC1</t>
-  </si>
-  <si>
-    <t>NET1014-G1-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>CSC3044-G3-Practical
-(Alwin Kumar Rathinam)
-UE2-16</t>
-  </si>
-  <si>
-    <t>NET3204-G5-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
-    <t>NET2201-G2-Practical
-(Lim Han Shen)
-UE2-17</t>
-  </si>
-  <si>
-    <t>NET1014-G2-Practical
-(Maisarah Binti Mansor)
-UE2-16</t>
-  </si>
-  <si>
-    <t>NET3204-G7-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>98.94%</t>
+    <t>98.9%</t>
   </si>
 </sst>
 </file>
@@ -392,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -492,19 +482,16 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="N2" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="N2" t="s" s="5">
+      <c r="R2" t="s" s="5">
         <v>24</v>
-      </c>
-      <c r="R2" t="s" s="5">
-        <v>25</v>
       </c>
     </row>
     <row r="3" ht="62.4" customHeight="true">
@@ -512,15 +499,18 @@
         <v>29</v>
       </c>
       <c r="F3" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s" s="5">
         <v>27</v>
       </c>
-      <c r="N3" t="s" s="5">
+      <c r="R3" t="s" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
       <c r="A4" t="s" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="5">
         <v>30</v>
@@ -531,8 +521,8 @@
       <c r="L4" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="P4" t="s" s="5">
-        <v>36</v>
+      <c r="Q4" t="s" s="5">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="62.4" customHeight="true">
@@ -542,43 +532,49 @@
       <c r="G5" t="s" s="5">
         <v>33</v>
       </c>
-      <c r="L5" t="s" s="5">
-        <v>35</v>
-      </c>
       <c r="Q5" t="s" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="62.4" customHeight="true">
+      <c r="R6" t="s" s="5">
         <v>37</v>
-      </c>
-    </row>
-    <row r="6" ht="62.4" customHeight="true">
-      <c r="Q6" t="s" s="5">
-        <v>38</v>
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
       <c r="A7" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="P7" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="B7" t="s" s="5">
+    </row>
+    <row r="8" ht="62.4" customHeight="true">
+      <c r="B8" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="G8" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="J7" t="s" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" ht="62.4" customHeight="true">
-      <c r="B8" t="s" s="3">
-        <v>41</v>
+      <c r="Q8" t="s" s="5">
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="62.4" customHeight="true">
       <c r="A9" t="s" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s" s="5">
         <v>48</v>
@@ -590,74 +586,58 @@
         <v>51</v>
       </c>
       <c r="R9" t="s" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="62.4" customHeight="true">
-      <c r="B10" t="s" s="5">
-        <v>46</v>
-      </c>
       <c r="F10" t="s" s="3">
         <v>49</v>
       </c>
       <c r="N10" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="R10" t="s" s="5">
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" ht="62.4" customHeight="true">
-      <c r="B11" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="Q11" t="s" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s" s="6">
-        <v>58</v>
+      <c r="B12" t="s" s="6">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B2:E2"/>
+  <mergeCells count="31">
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="Q4:T4"/>
     <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="R6:U6"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="Q8:T8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="Q11:T11"/>
     <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
